--- a/danh_sach_nguoi_dung.xlsx
+++ b/danh_sach_nguoi_dung.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -424,67 +424,67 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="str">
-        <v>12345678iu</v>
+        <v>Admin</v>
       </c>
       <c r="B2" s="2" t="str">
-        <v>drc@gmail.com</v>
+        <v>dc@gmail.com</v>
       </c>
       <c r="C2" s="2" t="str">
-        <v>Đức pro</v>
+        <v xml:space="preserve">Nguyễn Văn Đức </v>
       </c>
       <c r="D2" s="2" t="str">
-        <v>fgfgfg</v>
+        <v>ducnguyenvan</v>
       </c>
       <c r="E2" s="2" t="str">
-        <v>12345678</v>
+        <v>12343211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="str">
-        <v>Admin</v>
+        <v>gfjdg</v>
       </c>
       <c r="B3" s="2" t="str">
-        <v>duc460169@gmail.com</v>
+        <v>Ngyuyefq@gmail.com</v>
       </c>
       <c r="C3" s="2" t="str">
-        <v>dc</v>
+        <v>Ngyuyefq</v>
       </c>
       <c r="D3" s="2" t="str">
-        <v>ducnguyenvan</v>
+        <v>hfjh</v>
       </c>
       <c r="E3" s="2" t="str">
-        <v>12343211</v>
+        <v>1234567889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="str">
-        <v>gfjdg</v>
+        <v>Admin</v>
       </c>
       <c r="B4" s="2" t="str">
-        <v>Ngyuyefq@gmail.com</v>
+        <v>duc460169@gmail.com</v>
       </c>
       <c r="C4" s="2" t="str">
-        <v>Ngyuyefq</v>
+        <v>Đức Nguyễn</v>
       </c>
       <c r="D4" s="2" t="str">
-        <v>hfjh</v>
+        <v>ducnguyenvanabc</v>
       </c>
       <c r="E4" s="2" t="str">
-        <v>1234567889</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
-        <v>Admin</v>
+        <v>wq</v>
       </c>
       <c r="B5" s="2" t="str">
-        <v>duc460169@gmail.com</v>
+        <v>abc@gmail.com</v>
       </c>
       <c r="C5" s="2" t="str">
-        <v>Đức Nguyễn</v>
+        <v>Độc cô cầu bại</v>
       </c>
       <c r="D5" s="2" t="str">
-        <v>ducnguyenvanabc</v>
+        <v>gvdjf</v>
       </c>
       <c r="E5" s="2" t="str">
         <v>1234567889</v>
@@ -492,50 +492,50 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="str">
-        <v>wq</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B6" s="2" t="str">
-        <v>abc@gmail.com</v>
+        <v>candidate1@gmail.com</v>
       </c>
       <c r="C6" s="2" t="str">
-        <v>Độc cô cầu bại</v>
+        <v>Nguyễn Văn Ứng Viên</v>
       </c>
       <c r="D6" s="2" t="str">
-        <v>gvdjf</v>
+        <v>uv1</v>
       </c>
       <c r="E6" s="2" t="str">
-        <v>1234567889</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B7" s="2" t="str">
-        <v>candidate1@gmail.com</v>
+        <v>employer1@gmail.com</v>
       </c>
       <c r="C7" s="2" t="str">
-        <v>Nguyễn Văn Ứng Viên</v>
+        <v>Công ty ABC</v>
       </c>
       <c r="D7" s="2" t="str">
-        <v>uv1</v>
+        <v>abc</v>
       </c>
       <c r="E7" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B8" s="2" t="str">
-        <v>employer1@gmail.com</v>
+        <v>candidate2@gmail.com</v>
       </c>
       <c r="C8" s="2" t="str">
-        <v>Công ty ABC</v>
+        <v>Trần Thị Ứng Viên</v>
       </c>
       <c r="D8" s="2" t="str">
-        <v>abc</v>
+        <v>uv2</v>
       </c>
       <c r="E8" s="2" t="str">
         <v>password123</v>
@@ -546,47 +546,47 @@
         <v>Ứng viên</v>
       </c>
       <c r="B9" s="2" t="str">
-        <v>candidate2@gmail.com</v>
+        <v>candidate1@gmail.com</v>
       </c>
       <c r="C9" s="2" t="str">
-        <v>Trần Thị Ứng Viên</v>
+        <v>Nguyễn Văn Ứng Viên</v>
       </c>
       <c r="D9" s="2" t="str">
-        <v>uv2</v>
+        <v>uv1</v>
       </c>
       <c r="E9" s="2" t="str">
-        <v>password123</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B10" s="2" t="str">
-        <v>candidate1@gmail.com</v>
+        <v>employer1@gmail.com</v>
       </c>
       <c r="C10" s="2" t="str">
-        <v>Nguyễn Văn Ứng Viên</v>
+        <v>Công ty ABC</v>
       </c>
       <c r="D10" s="2" t="str">
-        <v>uv1</v>
+        <v>abc</v>
       </c>
       <c r="E10" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B11" s="2" t="str">
-        <v>employer1@gmail.com</v>
+        <v>candidate2@gmail.com</v>
       </c>
       <c r="C11" s="2" t="str">
-        <v>Công ty ABC</v>
+        <v>Trần Thị Ứng Viên</v>
       </c>
       <c r="D11" s="2" t="str">
-        <v>abc</v>
+        <v>uv2</v>
       </c>
       <c r="E11" s="2" t="str">
         <v>password123</v>
@@ -597,13 +597,13 @@
         <v>Ứng viên</v>
       </c>
       <c r="B12" s="2" t="str">
-        <v>candidate2@gmail.com</v>
+        <v>candidate3@gmail.com</v>
       </c>
       <c r="C12" s="2" t="str">
-        <v>Trần Thị Ứng Viên</v>
+        <v>Lê Thị Ứng Viên</v>
       </c>
       <c r="D12" s="2" t="str">
-        <v>uv2</v>
+        <v>uv3</v>
       </c>
       <c r="E12" s="2" t="str">
         <v>password123</v>
@@ -611,16 +611,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B13" s="2" t="str">
-        <v>candidate3@gmail.com</v>
+        <v>employer2@gmail.com</v>
       </c>
       <c r="C13" s="2" t="str">
-        <v>Lê Thị Ứng Viên</v>
+        <v>Công ty XYZ</v>
       </c>
       <c r="D13" s="2" t="str">
-        <v>uv3</v>
+        <v>xyz</v>
       </c>
       <c r="E13" s="2" t="str">
         <v>password123</v>
@@ -628,19 +628,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B14" s="2" t="str">
-        <v>employer2@gmail.com</v>
+        <v>candidate4@gmail.com</v>
       </c>
       <c r="C14" s="2" t="str">
-        <v>Công ty XYZ</v>
+        <v>Nguyễn Thanh Ứng Viên</v>
       </c>
       <c r="D14" s="2" t="str">
-        <v>xyz</v>
+        <v>uv4</v>
       </c>
       <c r="E14" s="2" t="str">
-        <v>password123</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="15">
@@ -648,30 +648,30 @@
         <v>Ứng viên</v>
       </c>
       <c r="B15" s="2" t="str">
-        <v>candidate4@gmail.com</v>
+        <v>candidate5@gmail.com</v>
       </c>
       <c r="C15" s="2" t="str">
-        <v>Nguyễn Thanh Ứng Viên</v>
+        <v>Phạm Thị Ứng Viên</v>
       </c>
       <c r="D15" s="2" t="str">
-        <v>uv4</v>
+        <v>uv5</v>
       </c>
       <c r="E15" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B16" s="2" t="str">
-        <v>candidate5@gmail.com</v>
+        <v>employer3@gmail.com</v>
       </c>
       <c r="C16" s="2" t="str">
-        <v>Phạm Thị Ứng Viên</v>
+        <v>Công ty UVW</v>
       </c>
       <c r="D16" s="2" t="str">
-        <v>uv5</v>
+        <v>uvw</v>
       </c>
       <c r="E16" s="2" t="str">
         <v>password123</v>
@@ -679,50 +679,50 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B17" s="2" t="str">
-        <v>employer3@gmail.com</v>
+        <v>candidate6@gmail.com</v>
       </c>
       <c r="C17" s="2" t="str">
-        <v>Công ty UVW</v>
+        <v>Trần Văn Ứng Viên</v>
       </c>
       <c r="D17" s="2" t="str">
-        <v>uvw</v>
+        <v>uv6</v>
       </c>
       <c r="E17" s="2" t="str">
-        <v>password123</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B18" s="2" t="str">
-        <v>candidate6@gmail.com</v>
+        <v>employer4@gmail.com</v>
       </c>
       <c r="C18" s="2" t="str">
-        <v>Trần Văn Ứng Viên</v>
+        <v>Công ty LMN</v>
       </c>
       <c r="D18" s="2" t="str">
-        <v>uv6</v>
+        <v>lmn</v>
       </c>
       <c r="E18" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B19" s="2" t="str">
-        <v>employer4@gmail.com</v>
+        <v>candidate5@gmail.com</v>
       </c>
       <c r="C19" s="2" t="str">
-        <v>Công ty LMN</v>
+        <v>Phạm Thị Ứng Viên</v>
       </c>
       <c r="D19" s="2" t="str">
-        <v>lmn</v>
+        <v>uv5</v>
       </c>
       <c r="E19" s="2" t="str">
         <v>password123</v>
@@ -730,16 +730,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B20" s="2" t="str">
-        <v>candidate5@gmail.com</v>
+        <v>employer3@gmail.com</v>
       </c>
       <c r="C20" s="2" t="str">
-        <v>Phạm Thị Ứng Viên</v>
+        <v>Công ty UVW</v>
       </c>
       <c r="D20" s="2" t="str">
-        <v>uv5</v>
+        <v>uvw</v>
       </c>
       <c r="E20" s="2" t="str">
         <v>password123</v>
@@ -747,50 +747,50 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B21" s="2" t="str">
-        <v>employer3@gmail.com</v>
+        <v>candidate6@gmail.com</v>
       </c>
       <c r="C21" s="2" t="str">
-        <v>Công ty UVW</v>
+        <v>Trần Văn Ứng Viên</v>
       </c>
       <c r="D21" s="2" t="str">
-        <v>uvw</v>
+        <v>uv6</v>
       </c>
       <c r="E21" s="2" t="str">
-        <v>password123</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B22" s="2" t="str">
-        <v>candidate6@gmail.com</v>
+        <v>employer4@gmail.com</v>
       </c>
       <c r="C22" s="2" t="str">
-        <v>Trần Văn Ứng Viên</v>
+        <v>Công ty LMN</v>
       </c>
       <c r="D22" s="2" t="str">
-        <v>uv6</v>
+        <v>lmn</v>
       </c>
       <c r="E22" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B23" s="2" t="str">
-        <v>employer4@gmail.com</v>
+        <v>candidate5@gmail.com</v>
       </c>
       <c r="C23" s="2" t="str">
-        <v>Công ty LMN</v>
+        <v>Nguyễn Thị Hương</v>
       </c>
       <c r="D23" s="2" t="str">
-        <v>lmn</v>
+        <v>huongnt</v>
       </c>
       <c r="E23" s="2" t="str">
         <v>password123</v>
@@ -798,16 +798,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B24" s="2" t="str">
-        <v>candidate5@gmail.com</v>
+        <v>employer3@gmail.com</v>
       </c>
       <c r="C24" s="2" t="str">
-        <v>Nguyễn Thị Hương</v>
+        <v>Trần Văn Tùng</v>
       </c>
       <c r="D24" s="2" t="str">
-        <v>huongnt</v>
+        <v>tungtv</v>
       </c>
       <c r="E24" s="2" t="str">
         <v>password123</v>
@@ -815,50 +815,50 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B25" s="2" t="str">
-        <v>employer3@gmail.com</v>
+        <v>candidate6@gmail.com</v>
       </c>
       <c r="C25" s="2" t="str">
-        <v>Trần Văn Tùng</v>
+        <v>Ngô Thị Ngọc Lan</v>
       </c>
       <c r="D25" s="2" t="str">
-        <v>tungtv</v>
+        <v>lanntn</v>
       </c>
       <c r="E25" s="2" t="str">
-        <v>password123</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B26" s="2" t="str">
-        <v>candidate6@gmail.com</v>
+        <v>employer4@gmail.com</v>
       </c>
       <c r="C26" s="2" t="str">
-        <v>Ngô Thị Ngọc Lan</v>
+        <v>Lý Minh Tuấn</v>
       </c>
       <c r="D26" s="2" t="str">
-        <v>lanntn</v>
+        <v>tuanlm</v>
       </c>
       <c r="E26" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B27" s="2" t="str">
-        <v>employer4@gmail.com</v>
+        <v>candidate7@gmail.com</v>
       </c>
       <c r="C27" s="2" t="str">
-        <v>Lý Minh Tuấn</v>
+        <v>Nguyễn Văn An</v>
       </c>
       <c r="D27" s="2" t="str">
-        <v>tuanlm</v>
+        <v>anvn</v>
       </c>
       <c r="E27" s="2" t="str">
         <v>password123</v>
@@ -866,16 +866,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B28" s="2" t="str">
-        <v>candidate7@gmail.com</v>
+        <v>employer5@gmail.com</v>
       </c>
       <c r="C28" s="2" t="str">
-        <v>Nguyễn Văn An</v>
+        <v>Công ty ABC</v>
       </c>
       <c r="D28" s="2" t="str">
-        <v>anvn</v>
+        <v>abc</v>
       </c>
       <c r="E28" s="2" t="str">
         <v>password123</v>
@@ -883,53 +883,87 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B29" s="2" t="str">
-        <v>employer5@gmail.com</v>
+        <v>candidate8@gmail.com</v>
       </c>
       <c r="C29" s="2" t="str">
-        <v>Công ty ABC</v>
+        <v>Trần Thị Hằng</v>
       </c>
       <c r="D29" s="2" t="str">
-        <v>abc</v>
+        <v>hangtt</v>
       </c>
       <c r="E29" s="2" t="str">
-        <v>password123</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B30" s="2" t="str">
-        <v>candidate8@gmail.com</v>
+        <v>employer6@gmail.com</v>
       </c>
       <c r="C30" s="2" t="str">
-        <v>Trần Thị Hằng</v>
+        <v>Công ty UVW</v>
       </c>
       <c r="D30" s="2" t="str">
-        <v>hangtt</v>
+        <v>uvw</v>
       </c>
       <c r="E30" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B31" s="2" t="str">
-        <v>employer6@gmail.com</v>
+        <v>ducnguyen460169@gmail.com</v>
       </c>
       <c r="C31" s="2" t="str">
-        <v>Công ty UVW</v>
+        <v>Nguyễn Đức</v>
       </c>
       <c r="D31" s="2" t="str">
-        <v>uvw</v>
+        <v>nguyenvanducabcd</v>
       </c>
       <c r="E31" s="2" t="str">
-        <v>password123</v>
+        <v>1234567889</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <v>vanduc460169@gmail.com</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <v>dc</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <v>ducnguyenvanxyz</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <v>ducnguyen460169@gmail.com</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <v>dcdbsgfjs</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <v>dhsdc</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <v>12345678900</v>
       </c>
     </row>
   </sheetData>

--- a/danh_sach_nguoi_dung.xlsx
+++ b/danh_sach_nguoi_dung.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
         <v>Admin</v>
       </c>
       <c r="B2" s="2" t="str">
-        <v>dc@gmail.com</v>
+        <v>ducnguyen460169@gmail.com</v>
       </c>
       <c r="C2" s="2" t="str">
         <v xml:space="preserve">Nguyễn Văn Đức </v>
@@ -441,7 +441,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="str">
-        <v>gfjdg</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B3" s="2" t="str">
         <v>Ngyuyefq@gmail.com</v>
@@ -470,7 +470,7 @@
         <v>ducnguyenvanabc</v>
       </c>
       <c r="E4" s="2" t="str">
-        <v>12345678</v>
+        <v>12345678900</v>
       </c>
     </row>
     <row r="5">
@@ -966,6 +966,23 @@
         <v>12345678900</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B34" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C34" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D34" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E34" s="2" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/danh_sach_nguoi_dung.xlsx
+++ b/danh_sach_nguoi_dung.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -441,53 +441,53 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Admin</v>
       </c>
       <c r="B3" s="2" t="str">
-        <v>Ngyuyefq@gmail.com</v>
+        <v>duc460169@gmail.com</v>
       </c>
       <c r="C3" s="2" t="str">
-        <v>Ngyuyefq</v>
+        <v>Đức Nguyễn</v>
       </c>
       <c r="D3" s="2" t="str">
-        <v>hfjh</v>
+        <v>ducnguyenvanabc</v>
       </c>
       <c r="E3" s="2" t="str">
-        <v>1234567889</v>
+        <v>admin@@2k3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="str">
-        <v>Admin</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B4" s="2" t="str">
-        <v>duc460169@gmail.com</v>
+        <v>candidate1@gmail.com</v>
       </c>
       <c r="C4" s="2" t="str">
-        <v>Đức Nguyễn</v>
+        <v>Tiểu Long Nữ</v>
       </c>
       <c r="D4" s="2" t="str">
-        <v>ducnguyenvanabc</v>
+        <v>uv1</v>
       </c>
       <c r="E4" s="2" t="str">
-        <v>12345678900</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
-        <v>wq</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B5" s="2" t="str">
-        <v>abc@gmail.com</v>
+        <v>employer1@gmail.com</v>
       </c>
       <c r="C5" s="2" t="str">
-        <v>Độc cô cầu bại</v>
+        <v>Công ty ABC</v>
       </c>
       <c r="D5" s="2" t="str">
-        <v>gvdjf</v>
+        <v>abc</v>
       </c>
       <c r="E5" s="2" t="str">
-        <v>1234567889</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="6">
@@ -495,47 +495,47 @@
         <v>Ứng viên</v>
       </c>
       <c r="B6" s="2" t="str">
-        <v>candidate1@gmail.com</v>
+        <v>candidate2@gmail.com</v>
       </c>
       <c r="C6" s="2" t="str">
-        <v>Nguyễn Văn Ứng Viên</v>
+        <v>Trần Thị Ứng Viên</v>
       </c>
       <c r="D6" s="2" t="str">
-        <v>uv1</v>
+        <v>uv2</v>
       </c>
       <c r="E6" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B7" s="2" t="str">
-        <v>employer1@gmail.com</v>
+        <v>candidate1@gmail.com</v>
       </c>
       <c r="C7" s="2" t="str">
-        <v>Công ty ABC</v>
+        <v>Nguyễn Văn Ứng Viên</v>
       </c>
       <c r="D7" s="2" t="str">
-        <v>abc</v>
+        <v>uv1</v>
       </c>
       <c r="E7" s="2" t="str">
-        <v>password123</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B8" s="2" t="str">
-        <v>candidate2@gmail.com</v>
+        <v>employer1@gmail.com</v>
       </c>
       <c r="C8" s="2" t="str">
-        <v>Trần Thị Ứng Viên</v>
+        <v>Công ty ABC</v>
       </c>
       <c r="D8" s="2" t="str">
-        <v>uv2</v>
+        <v>abc</v>
       </c>
       <c r="E8" s="2" t="str">
         <v>password123</v>
@@ -546,30 +546,30 @@
         <v>Ứng viên</v>
       </c>
       <c r="B9" s="2" t="str">
-        <v>candidate1@gmail.com</v>
+        <v>candidate2@gmail.com</v>
       </c>
       <c r="C9" s="2" t="str">
-        <v>Nguyễn Văn Ứng Viên</v>
+        <v>Trần Thị Ứng Viên</v>
       </c>
       <c r="D9" s="2" t="str">
-        <v>uv1</v>
+        <v>uv2</v>
       </c>
       <c r="E9" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B10" s="2" t="str">
-        <v>employer1@gmail.com</v>
+        <v>candidate3@gmail.com</v>
       </c>
       <c r="C10" s="2" t="str">
-        <v>Công ty ABC</v>
+        <v>Lê Thị Ứng Viên</v>
       </c>
       <c r="D10" s="2" t="str">
-        <v>abc</v>
+        <v>uv3</v>
       </c>
       <c r="E10" s="2" t="str">
         <v>password123</v>
@@ -577,16 +577,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B11" s="2" t="str">
-        <v>candidate2@gmail.com</v>
+        <v>employer2@gmail.com</v>
       </c>
       <c r="C11" s="2" t="str">
-        <v>Trần Thị Ứng Viên</v>
+        <v>Công ty XYZ</v>
       </c>
       <c r="D11" s="2" t="str">
-        <v>uv2</v>
+        <v>xyz</v>
       </c>
       <c r="E11" s="2" t="str">
         <v>password123</v>
@@ -597,30 +597,30 @@
         <v>Ứng viên</v>
       </c>
       <c r="B12" s="2" t="str">
-        <v>candidate3@gmail.com</v>
+        <v>candidate4@gmail.com</v>
       </c>
       <c r="C12" s="2" t="str">
-        <v>Lê Thị Ứng Viên</v>
+        <v>Nguyễn Thanh Ứng Viên</v>
       </c>
       <c r="D12" s="2" t="str">
-        <v>uv3</v>
+        <v>uv4</v>
       </c>
       <c r="E12" s="2" t="str">
-        <v>password123</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Ứng viên</v>
       </c>
       <c r="B13" s="2" t="str">
-        <v>employer2@gmail.com</v>
+        <v>candidate5@gmail.com</v>
       </c>
       <c r="C13" s="2" t="str">
-        <v>Công ty XYZ</v>
+        <v>Phạm Thị Ứng Viên</v>
       </c>
       <c r="D13" s="2" t="str">
-        <v>xyz</v>
+        <v>uv5</v>
       </c>
       <c r="E13" s="2" t="str">
         <v>password123</v>
@@ -628,19 +628,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Nhà tuyển dụng</v>
       </c>
       <c r="B14" s="2" t="str">
-        <v>candidate4@gmail.com</v>
+        <v>employer3@gmail.com</v>
       </c>
       <c r="C14" s="2" t="str">
-        <v>Nguyễn Thanh Ứng Viên</v>
+        <v>Công ty UVW</v>
       </c>
       <c r="D14" s="2" t="str">
-        <v>uv4</v>
+        <v>uvw</v>
       </c>
       <c r="E14" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="15">
@@ -648,16 +648,16 @@
         <v>Ứng viên</v>
       </c>
       <c r="B15" s="2" t="str">
-        <v>candidate5@gmail.com</v>
+        <v>candidate6@gmail.com</v>
       </c>
       <c r="C15" s="2" t="str">
-        <v>Phạm Thị Ứng Viên</v>
+        <v>Trần Văn Ứng Viên</v>
       </c>
       <c r="D15" s="2" t="str">
-        <v>uv5</v>
+        <v>uv6</v>
       </c>
       <c r="E15" s="2" t="str">
-        <v>password123</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="16">
@@ -665,13 +665,13 @@
         <v>Nhà tuyển dụng</v>
       </c>
       <c r="B16" s="2" t="str">
-        <v>employer3@gmail.com</v>
+        <v>employer4@gmail.com</v>
       </c>
       <c r="C16" s="2" t="str">
-        <v>Công ty UVW</v>
+        <v>Công ty LMN</v>
       </c>
       <c r="D16" s="2" t="str">
-        <v>uvw</v>
+        <v>lmn</v>
       </c>
       <c r="E16" s="2" t="str">
         <v>password123</v>
@@ -682,16 +682,16 @@
         <v>Ứng viên</v>
       </c>
       <c r="B17" s="2" t="str">
-        <v>candidate6@gmail.com</v>
+        <v>candidate5@gmail.com</v>
       </c>
       <c r="C17" s="2" t="str">
-        <v>Trần Văn Ứng Viên</v>
+        <v>Phạm Thị Ứng Viên</v>
       </c>
       <c r="D17" s="2" t="str">
-        <v>uv6</v>
+        <v>uv5</v>
       </c>
       <c r="E17" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="18">
@@ -699,13 +699,13 @@
         <v>Nhà tuyển dụng</v>
       </c>
       <c r="B18" s="2" t="str">
-        <v>employer4@gmail.com</v>
+        <v>employer3@gmail.com</v>
       </c>
       <c r="C18" s="2" t="str">
-        <v>Công ty LMN</v>
+        <v>Công ty UVW</v>
       </c>
       <c r="D18" s="2" t="str">
-        <v>lmn</v>
+        <v>uvw</v>
       </c>
       <c r="E18" s="2" t="str">
         <v>password123</v>
@@ -716,16 +716,16 @@
         <v>Ứng viên</v>
       </c>
       <c r="B19" s="2" t="str">
-        <v>candidate5@gmail.com</v>
+        <v>candidate6@gmail.com</v>
       </c>
       <c r="C19" s="2" t="str">
-        <v>Phạm Thị Ứng Viên</v>
+        <v>Trần Văn Ứng Viên</v>
       </c>
       <c r="D19" s="2" t="str">
-        <v>uv5</v>
+        <v>uv6</v>
       </c>
       <c r="E19" s="2" t="str">
-        <v>password123</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="20">
@@ -733,13 +733,13 @@
         <v>Nhà tuyển dụng</v>
       </c>
       <c r="B20" s="2" t="str">
-        <v>employer3@gmail.com</v>
+        <v>employer4@gmail.com</v>
       </c>
       <c r="C20" s="2" t="str">
-        <v>Công ty UVW</v>
+        <v>Công ty LMN</v>
       </c>
       <c r="D20" s="2" t="str">
-        <v>uvw</v>
+        <v>lmn</v>
       </c>
       <c r="E20" s="2" t="str">
         <v>password123</v>
@@ -750,16 +750,16 @@
         <v>Ứng viên</v>
       </c>
       <c r="B21" s="2" t="str">
-        <v>candidate6@gmail.com</v>
+        <v>candidate5@gmail.com</v>
       </c>
       <c r="C21" s="2" t="str">
-        <v>Trần Văn Ứng Viên</v>
+        <v>Nguyễn Thị Hương</v>
       </c>
       <c r="D21" s="2" t="str">
-        <v>uv6</v>
+        <v>huongnt</v>
       </c>
       <c r="E21" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="22">
@@ -767,13 +767,13 @@
         <v>Nhà tuyển dụng</v>
       </c>
       <c r="B22" s="2" t="str">
-        <v>employer4@gmail.com</v>
+        <v>employer3@gmail.com</v>
       </c>
       <c r="C22" s="2" t="str">
-        <v>Công ty LMN</v>
+        <v>Trần Văn Tùng</v>
       </c>
       <c r="D22" s="2" t="str">
-        <v>lmn</v>
+        <v>tungtv</v>
       </c>
       <c r="E22" s="2" t="str">
         <v>password123</v>
@@ -784,16 +784,16 @@
         <v>Ứng viên</v>
       </c>
       <c r="B23" s="2" t="str">
-        <v>candidate5@gmail.com</v>
+        <v>candidate6@gmail.com</v>
       </c>
       <c r="C23" s="2" t="str">
-        <v>Nguyễn Thị Hương</v>
+        <v>Ngô Thị Ngọc Lan</v>
       </c>
       <c r="D23" s="2" t="str">
-        <v>huongnt</v>
+        <v>lanntn</v>
       </c>
       <c r="E23" s="2" t="str">
-        <v>password123</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="24">
@@ -801,13 +801,13 @@
         <v>Nhà tuyển dụng</v>
       </c>
       <c r="B24" s="2" t="str">
-        <v>employer3@gmail.com</v>
+        <v>employer4@gmail.com</v>
       </c>
       <c r="C24" s="2" t="str">
-        <v>Trần Văn Tùng</v>
+        <v>Lý Minh Tuấn</v>
       </c>
       <c r="D24" s="2" t="str">
-        <v>tungtv</v>
+        <v>tuanlm</v>
       </c>
       <c r="E24" s="2" t="str">
         <v>password123</v>
@@ -818,16 +818,16 @@
         <v>Ứng viên</v>
       </c>
       <c r="B25" s="2" t="str">
-        <v>candidate6@gmail.com</v>
+        <v>candidate7@gmail.com</v>
       </c>
       <c r="C25" s="2" t="str">
-        <v>Ngô Thị Ngọc Lan</v>
+        <v>Nguyễn Văn An</v>
       </c>
       <c r="D25" s="2" t="str">
-        <v>lanntn</v>
+        <v>anvn</v>
       </c>
       <c r="E25" s="2" t="str">
-        <v>12345678</v>
+        <v>password123</v>
       </c>
     </row>
     <row r="26">
@@ -835,13 +835,13 @@
         <v>Nhà tuyển dụng</v>
       </c>
       <c r="B26" s="2" t="str">
-        <v>employer4@gmail.com</v>
+        <v>employer5@gmail.com</v>
       </c>
       <c r="C26" s="2" t="str">
-        <v>Lý Minh Tuấn</v>
+        <v>Công ty ABC</v>
       </c>
       <c r="D26" s="2" t="str">
-        <v>tuanlm</v>
+        <v>abc</v>
       </c>
       <c r="E26" s="2" t="str">
         <v>password123</v>
@@ -852,16 +852,16 @@
         <v>Ứng viên</v>
       </c>
       <c r="B27" s="2" t="str">
-        <v>candidate7@gmail.com</v>
+        <v>candidate8@gmail.com</v>
       </c>
       <c r="C27" s="2" t="str">
-        <v>Nguyễn Văn An</v>
+        <v>Trần Thị Hằng</v>
       </c>
       <c r="D27" s="2" t="str">
-        <v>anvn</v>
+        <v>hangtt</v>
       </c>
       <c r="E27" s="2" t="str">
-        <v>password123</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="28">
@@ -869,13 +869,13 @@
         <v>Nhà tuyển dụng</v>
       </c>
       <c r="B28" s="2" t="str">
-        <v>employer5@gmail.com</v>
+        <v>employer6@gmail.com</v>
       </c>
       <c r="C28" s="2" t="str">
-        <v>Công ty ABC</v>
+        <v>Công ty UVW</v>
       </c>
       <c r="D28" s="2" t="str">
-        <v>abc</v>
+        <v>uvw</v>
       </c>
       <c r="E28" s="2" t="str">
         <v>password123</v>
@@ -886,50 +886,50 @@
         <v>Ứng viên</v>
       </c>
       <c r="B29" s="2" t="str">
-        <v>candidate8@gmail.com</v>
+        <v>ducnguyen460169@gmail.com</v>
       </c>
       <c r="C29" s="2" t="str">
-        <v>Trần Thị Hằng</v>
+        <v>Nguyễn Đức</v>
       </c>
       <c r="D29" s="2" t="str">
-        <v>hangtt</v>
+        <v>nguyenvanducabcd</v>
       </c>
       <c r="E29" s="2" t="str">
-        <v>12345678</v>
+        <v>1234567889</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="str">
-        <v>Nhà tuyển dụng</v>
+        <v>Admin</v>
       </c>
       <c r="B30" s="2" t="str">
-        <v>employer6@gmail.com</v>
+        <v>vanduc460169@gmail.com</v>
       </c>
       <c r="C30" s="2" t="str">
-        <v>Công ty UVW</v>
+        <v>dc</v>
       </c>
       <c r="D30" s="2" t="str">
-        <v>uvw</v>
+        <v>ducnguyenvanxyz</v>
       </c>
       <c r="E30" s="2" t="str">
-        <v>password123</v>
+        <v>123456789</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="str">
-        <v>Ứng viên</v>
+        <v>Admin</v>
       </c>
       <c r="B31" s="2" t="str">
         <v>ducnguyen460169@gmail.com</v>
       </c>
       <c r="C31" s="2" t="str">
-        <v>Nguyễn Đức</v>
+        <v>dcdbsgfjs</v>
       </c>
       <c r="D31" s="2" t="str">
-        <v>nguyenvanducabcd</v>
+        <v>dhsdc</v>
       </c>
       <c r="E31" s="2" t="str">
-        <v>1234567889</v>
+        <v>12345678900</v>
       </c>
     </row>
     <row r="32">
@@ -940,47 +940,13 @@
         <v>vanduc460169@gmail.com</v>
       </c>
       <c r="C32" s="2" t="str">
-        <v>dc</v>
+        <v xml:space="preserve">Nguyễn Văn Đức </v>
       </c>
       <c r="D32" s="2" t="str">
-        <v>ducnguyenvanxyz</v>
+        <v>nguyenduc</v>
       </c>
       <c r="E32" s="2" t="str">
         <v>123456789</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="str">
-        <v>Admin</v>
-      </c>
-      <c r="B33" s="2" t="str">
-        <v>ducnguyen460169@gmail.com</v>
-      </c>
-      <c r="C33" s="2" t="str">
-        <v>dcdbsgfjs</v>
-      </c>
-      <c r="D33" s="2" t="str">
-        <v>dhsdc</v>
-      </c>
-      <c r="E33" s="2" t="str">
-        <v>12345678900</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B34" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C34" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D34" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E34" s="2" t="str">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/danh_sach_nguoi_dung.xlsx
+++ b/danh_sach_nguoi_dung.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -949,6 +949,23 @@
         <v>123456789</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="2" t="str">
+        <v>Ứng viên</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <v>ducabc2k3460169@gmail.com</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <v>Nguyễn Đức</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <v>jasuo</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <v>12345678</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>